--- a/data/institutions.xlsx
+++ b/data/institutions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cernohlp\Documents\GitHub\nr-taxonomies\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanavyc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="slovník" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8289" uniqueCount="4231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8296" uniqueCount="4236">
   <si>
     <t>code</t>
   </si>
@@ -12722,6 +12722,21 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>cog-cz</t>
+  </si>
+  <si>
+    <t>COG-CZ</t>
+  </si>
+  <si>
+    <t>https://virus.img.cas.cz/</t>
+  </si>
+  <si>
+    <t>COVID-19 Genomics CZ Consortium</t>
+  </si>
+  <si>
+    <t>COG-CZ - Česká republika</t>
   </si>
 </sst>
 </file>
@@ -12837,7 +12852,7 @@
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13165,16 +13180,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13542,12 +13547,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AME1785"/>
+  <dimension ref="A1:AME1786"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A1786" sqref="A1786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -71346,9 +71351,35 @@
       <c r="T1785" s="7"/>
       <c r="U1785" s="7"/>
     </row>
+    <row r="1786" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1786" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1786" s="2" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C1786" s="9" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F1786" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1786" t="s">
+        <v>4233</v>
+      </c>
+      <c r="N1786" s="7" t="s">
+        <v>3643</v>
+      </c>
+      <c r="O1786" s="7" t="s">
+        <v>4234</v>
+      </c>
+      <c r="P1786" s="7" t="s">
+        <v>4235</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B6:B1048576 B1:B4">
-    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C8:C57 C59:C1375 C1377:C1388 C1390 C1393:C1657 C1659:C1765 C1767:C1768">
     <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Fakulta">
